--- a/Team-Data/2014-15/3-15-2014-15.xlsx
+++ b/Team-Data/2014-15/3-15-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
         <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>0.788</v>
+        <v>0.785</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
@@ -684,40 +751,40 @@
         <v>37.9</v>
       </c>
       <c r="J2" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K2" t="n">
         <v>0.467</v>
       </c>
       <c r="L2" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
         <v>25.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.383</v>
+        <v>0.386</v>
       </c>
       <c r="O2" t="n">
         <v>16.9</v>
       </c>
       <c r="P2" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.78</v>
       </c>
       <c r="R2" t="n">
         <v>8.6</v>
       </c>
       <c r="S2" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T2" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U2" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="V2" t="n">
         <v>14.4</v>
@@ -726,7 +793,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
         <v>4.9</v>
@@ -735,19 +802,19 @@
         <v>17.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="AC2" t="n">
         <v>6.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF2" t="n">
         <v>2</v>
@@ -756,13 +823,13 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>3</v>
@@ -780,7 +847,7 @@
         <v>14</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>4</v>
@@ -804,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>16</v>
@@ -816,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
@@ -962,16 +1029,16 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
         <v>18</v>
       </c>
       <c r="AR3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
         <v>12</v>
@@ -986,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1120,16 +1187,16 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1156,7 +1223,7 @@
         <v>18</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1302,7 +1369,7 @@
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1329,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1338,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
         <v>22</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>0.588</v>
+        <v>0.597</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1421,10 +1488,10 @@
         <v>7.8</v>
       </c>
       <c r="M6" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O6" t="n">
         <v>19.9</v>
@@ -1433,22 +1500,22 @@
         <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R6" t="n">
         <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="T6" t="n">
-        <v>45.8</v>
+        <v>46</v>
       </c>
       <c r="U6" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V6" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W6" t="n">
         <v>6.1</v>
@@ -1460,16 +1527,16 @@
         <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
         <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
@@ -1532,10 +1599,10 @@
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="n">
         <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.632</v>
+        <v>0.627</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J7" t="n">
         <v>82.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L7" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M7" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.362</v>
+        <v>0.359</v>
       </c>
       <c r="O7" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P7" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R7" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S7" t="n">
         <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W7" t="n">
         <v>7.4</v>
@@ -1639,25 +1706,25 @@
         <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z7" t="n">
         <v>18.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.6</v>
+        <v>103.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
@@ -1666,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1675,7 +1742,7 @@
         <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1690,34 +1757,34 @@
         <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS7" t="n">
         <v>21</v>
       </c>
       <c r="AT7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
         <v>42</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.636</v>
+        <v>0.627</v>
       </c>
       <c r="H8" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
@@ -1797,19 +1864,19 @@
         <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V8" t="n">
         <v>12.7</v>
@@ -1830,25 +1897,25 @@
         <v>21.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG8" t="n">
         <v>7</v>
       </c>
-      <c r="AE8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>6</v>
-      </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1872,19 +1939,19 @@
         <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1905,7 +1972,7 @@
         <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -1940,25 +2007,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
         <v>41</v>
       </c>
       <c r="G9" t="n">
-        <v>0.388</v>
+        <v>0.379</v>
       </c>
       <c r="H9" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J9" t="n">
-        <v>86.8</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>0.431</v>
@@ -1967,7 +2034,7 @@
         <v>7.7</v>
       </c>
       <c r="M9" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="N9" t="n">
         <v>0.318</v>
@@ -1979,16 +2046,16 @@
         <v>24.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R9" t="n">
         <v>12.2</v>
       </c>
       <c r="S9" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T9" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U9" t="n">
         <v>21.7</v>
@@ -2003,7 +2070,7 @@
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z9" t="n">
         <v>22.8</v>
@@ -2012,16 +2079,16 @@
         <v>20.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>16</v>
@@ -2054,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
@@ -2063,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
         <v>6</v>
@@ -2078,10 +2145,10 @@
         <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2218,13 +2285,13 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
@@ -2269,7 +2336,7 @@
         <v>8</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2421,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -2501,43 +2568,43 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="M12" t="n">
         <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.721</v>
+        <v>0.717</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V12" t="n">
         <v>16.8</v>
@@ -2552,22 +2619,22 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2615,7 +2682,7 @@
         <v>14</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2627,10 +2694,10 @@
         <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>13</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>0.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
@@ -2758,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2782,10 +2849,10 @@
         <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>20</v>
@@ -2800,7 +2867,7 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
@@ -2821,7 +2888,7 @@
         <v>23</v>
       </c>
       <c r="BC13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -2850,94 +2917,94 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" t="n">
         <v>42</v>
       </c>
       <c r="F14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>0.627</v>
+        <v>0.636</v>
       </c>
       <c r="H14" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J14" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.47</v>
       </c>
       <c r="L14" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>26.6</v>
+        <v>26.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P14" t="n">
         <v>25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.713</v>
+        <v>0.715</v>
       </c>
       <c r="R14" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U14" t="n">
         <v>24.4</v>
       </c>
       <c r="V14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="W14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y14" t="n">
         <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA14" t="n">
         <v>21.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>29</v>
@@ -2958,7 +3025,7 @@
         <v>5</v>
       </c>
       <c r="AN14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
         <v>10</v>
@@ -2973,10 +3040,10 @@
         <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2985,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -3047,46 +3114,46 @@
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N15" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P15" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T15" t="n">
-        <v>44.3</v>
+        <v>44</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="W15" t="n">
         <v>7.3</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3128,7 +3195,7 @@
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
@@ -3140,25 +3207,25 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
       </c>
       <c r="AT15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3167,19 +3234,19 @@
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA15" t="n">
         <v>22</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>23</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,13 +3374,13 @@
         <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
         <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3343,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
         <v>6</v>
@@ -3355,7 +3422,7 @@
         <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
@@ -3495,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3510,10 +3577,10 @@
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3528,7 +3595,7 @@
         <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
@@ -3671,13 +3738,13 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3686,7 +3753,7 @@
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
@@ -3695,7 +3762,7 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
@@ -3716,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
         <v>12</v>
@@ -3731,7 +3798,7 @@
         <v>22</v>
       </c>
       <c r="BC18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="n">
         <v>14</v>
       </c>
       <c r="F19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" t="n">
-        <v>0.215</v>
+        <v>0.219</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J19" t="n">
-        <v>84.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K19" t="n">
         <v>0.434</v>
@@ -3790,16 +3857,16 @@
         <v>14.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.328</v>
+        <v>0.326</v>
       </c>
       <c r="O19" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P19" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R19" t="n">
         <v>12.2</v>
@@ -3814,7 +3881,7 @@
         <v>21.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W19" t="n">
         <v>8.4</v>
@@ -3829,16 +3896,16 @@
         <v>19.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB19" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.1</v>
+        <v>-7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,13 +3917,13 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3877,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3892,7 +3959,7 @@
         <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>8</v>
@@ -3907,7 +3974,7 @@
         <v>10</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -3945,31 +4012,31 @@
         <v>65</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>0.538</v>
+        <v>0.554</v>
       </c>
       <c r="H20" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
         <v>0.362</v>
@@ -3978,61 +4045,61 @@
         <v>16.8</v>
       </c>
       <c r="P20" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T20" t="n">
         <v>43.5</v>
       </c>
       <c r="U20" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V20" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X20" t="n">
         <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
         <v>11</v>
@@ -4041,10 +4108,10 @@
         <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="n">
         <v>23</v>
@@ -4053,25 +4120,25 @@
         <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>0.197</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J21" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.43</v>
       </c>
       <c r="L21" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N21" t="n">
         <v>0.349</v>
       </c>
       <c r="O21" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="P21" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.764</v>
+        <v>0.766</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
         <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U21" t="n">
         <v>21.4</v>
@@ -4181,13 +4248,13 @@
         <v>14.3</v>
       </c>
       <c r="W21" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
         <v>4.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z21" t="n">
         <v>22</v>
@@ -4199,10 +4266,10 @@
         <v>92.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9.1</v>
+        <v>-9</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4214,19 +4281,19 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4265,7 +4332,7 @@
         <v>22</v>
       </c>
       <c r="AY21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="n">
         <v>29</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4336,16 +4403,16 @@
         <v>22.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="O22" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P22" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R22" t="n">
         <v>12.4</v>
@@ -4357,7 +4424,7 @@
         <v>47.5</v>
       </c>
       <c r="U22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V22" t="n">
         <v>14.8</v>
@@ -4378,13 +4445,13 @@
         <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4396,10 +4463,10 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>5</v>
@@ -4420,7 +4487,7 @@
         <v>6</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ22" t="n">
         <v>15</v>
@@ -4438,7 +4505,7 @@
         <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW22" t="n">
         <v>22</v>
@@ -4450,13 +4517,13 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
         <v>18</v>
       </c>
       <c r="BB22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -4503,70 +4570,70 @@
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.723</v>
+        <v>0.727</v>
       </c>
       <c r="R23" t="n">
         <v>9.4</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
         <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA23" t="n">
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC23" t="n">
         <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4578,19 +4645,19 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
@@ -4620,16 +4687,16 @@
         <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4784,7 +4851,7 @@
         <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="n">
         <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>0.515</v>
+        <v>0.507</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J25" t="n">
-        <v>86.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.456</v>
@@ -4879,7 +4946,7 @@
         <v>9.1</v>
       </c>
       <c r="M25" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="N25" t="n">
         <v>0.351</v>
@@ -4891,28 +4958,28 @@
         <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.769</v>
+        <v>0.772</v>
       </c>
       <c r="R25" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S25" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T25" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U25" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V25" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W25" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y25" t="n">
         <v>4</v>
@@ -4927,13 +4994,13 @@
         <v>104.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -4951,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
         <v>8</v>
@@ -4963,13 +5030,13 @@
         <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>20</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AR25" t="n">
         <v>14</v>
@@ -4978,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
         <v>25</v>
@@ -4990,7 +5057,7 @@
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -4999,10 +5066,10 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="n">
         <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J26" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L26" t="n">
         <v>10.1</v>
@@ -5064,28 +5131,28 @@
         <v>27.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O26" t="n">
         <v>16</v>
       </c>
       <c r="P26" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8</v>
+        <v>0.802</v>
       </c>
       <c r="R26" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S26" t="n">
         <v>35.3</v>
       </c>
       <c r="T26" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U26" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V26" t="n">
         <v>13.8</v>
@@ -5100,19 +5167,19 @@
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA26" t="n">
         <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.9</v>
+        <v>102.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
@@ -5127,13 +5194,13 @@
         <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
         <v>8</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5142,13 +5209,13 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5187,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5357,7 +5424,7 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ27" t="n">
         <v>17</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -5413,19 +5480,19 @@
         <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N28" t="n">
         <v>0.364</v>
@@ -5443,22 +5510,22 @@
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="V28" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W28" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
         <v>4.6</v>
@@ -5470,13 +5537,13 @@
         <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.3</v>
+        <v>101.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
@@ -5491,31 +5558,31 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ28" t="n">
         <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
@@ -5524,19 +5591,19 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW28" t="n">
         <v>15</v>
       </c>
-      <c r="AU28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>12</v>
-      </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
         <v>11</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="n">
         <v>39</v>
       </c>
       <c r="F29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>0.591</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
@@ -5598,7 +5665,7 @@
         <v>38.1</v>
       </c>
       <c r="J29" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K29" t="n">
         <v>0.453</v>
@@ -5607,10 +5674,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O29" t="n">
         <v>19.3</v>
@@ -5622,13 +5689,13 @@
         <v>0.784</v>
       </c>
       <c r="R29" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S29" t="n">
         <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U29" t="n">
         <v>20.8</v>
@@ -5649,16 +5716,16 @@
         <v>21.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5670,13 +5737,13 @@
         <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>14</v>
@@ -5715,10 +5782,10 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5727,7 +5794,7 @@
         <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5870,10 +5937,10 @@
         <v>18</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
@@ -5885,7 +5952,7 @@
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
@@ -5897,10 +5964,10 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>14</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
@@ -6022,25 +6089,25 @@
         <v>1.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
         <v>4</v>
@@ -6070,22 +6137,22 @@
         <v>8</v>
       </c>
       <c r="AT31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV31" t="n">
         <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX31" t="n">
         <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-15-2014-15</t>
+          <t>2015-03-15</t>
         </is>
       </c>
     </row>
